--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CAD69-274A-1249-9CDB-60ADDCA09718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA815B-D5A4-834F-8D2F-B7174189D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2480" windowWidth="32120" windowHeight="17620" activeTab="1" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
+    <workbookView xWindow="2480" yWindow="2480" windowWidth="32120" windowHeight="17620" activeTab="2" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice 01" sheetId="1" r:id="rId1"/>
     <sheet name="Temporal Dead Zone(TDZ)" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice 02" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <t>javascript_advance</t>
   </si>
@@ -695,6 +696,133 @@
   </si>
   <si>
     <t>Chỉ dùng được trong khu vực của scope Block này thôi mà không dùng được ở bên ngoài Block</t>
+  </si>
+  <si>
+    <t>03_Scope_Chain</t>
+  </si>
+  <si>
+    <t>challenge_02.js</t>
+  </si>
+  <si>
+    <t>javascript_advance/01_js_to_know/03_Scope_Chain/index.html</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+&lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+  &lt;title&gt;Scope Chain&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;h1&gt;Scope Chain trong Javascript&lt;/h1&gt;
+&lt;/body&gt;
+  &lt;script src="challenge_02.js"&gt;&lt;/script&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>javascript_advance/01_js_to_know/03_Scope_Chain/challenge_02.js</t>
+  </si>
+  <si>
+    <t>console.log('1. age = ', age); // undefined</t>
+  </si>
+  <si>
+    <t>console.log('2. age = ', age); // 20</t>
+  </si>
+  <si>
+    <t>challenge02();</t>
+  </si>
+  <si>
+    <t>function challenge02() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('3. age = ', age); // undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var age = 50; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('4. age = ', age); // 50</t>
+  </si>
+  <si>
+    <t>console.log('5. age = ', age); // 20</t>
+  </si>
+  <si>
+    <t>1. age =  undefined</t>
+  </si>
+  <si>
+    <t>2. age =  20</t>
+  </si>
+  <si>
+    <t>3. age =  undefined</t>
+  </si>
+  <si>
+    <t>4. age =  50</t>
+  </si>
+  <si>
+    <t>5. age =  20</t>
+  </si>
+  <si>
+    <t>Khai báo hàm</t>
+  </si>
+  <si>
+    <t>Lời gọi hàm</t>
+  </si>
+  <si>
+    <t>Khai báo biến</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đầu tiên khi App(index.html) được chạy thì challenge_02.js sẽ được chạy do đó ta có giai đoạn khởi tạo và giai đoạn thực thi nằm trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Global Execution Context</t>
+    </r>
+  </si>
+  <si>
+    <t>Trong giai đoạn khởi tạo có khai báo biến age và khai báo function challenge02()</t>
+  </si>
+  <si>
+    <t>Giai đoạn thực thi lần lượt từng dòng từ trên xuống</t>
+  </si>
+  <si>
+    <t>Chạy đến dòng thứ 2 sẽ gán giá trị cho biến age được lưu trong Global Memỏy giá trị là 20</t>
+  </si>
+  <si>
+    <t>Khi chạy đến dòng thứ 3 sẽ có kết quả là: 2. age =  20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi chạy đến dòng thứ 5 thì hàm challenge02() sẽ được thực thi. Khi 1 hàm được thực thi thì nó sẽ sinh ra 1 Execution Context(ngữ cảnh thực thi) mới. Do đó ứng với ngữ cảnh thực thi này sẽ có quá trình khởi tạo và thực thi tương ứng nên nó sẽ </t>
+  </si>
+  <si>
+    <t>memory riêng(Local memory)</t>
+  </si>
+  <si>
+    <t>Sau khi xong giai đoạn khởi tạo của challenge02() thì sẽ đến giai đoạn thực thi, lúc này hàm challenge02() sẽ được đưa lên đỉnh của Call Stack</t>
+  </si>
+  <si>
+    <t>Chạy đến dòng đầu tiên nó sẽ kiểm tra trong Global Memory xem có biến age hay không và có kết quả: 1. age =  undefined</t>
+  </si>
+  <si>
+    <t>Khi thực thi hàm challenge02() từ dòng đầu tiên nó sẽ kiểm tra trong Local Memory của nó có biến age hay không và kết quả sẽ là: 3. age =  undefined</t>
+  </si>
+  <si>
+    <t>Khi thực thi đến dòng tiếp theo của hàm challenge02() thì lúc này age được gán giá trị là 50</t>
+  </si>
+  <si>
+    <t>Tương tự thực thi đến dòng tiếp theo sẽ có kết quả: 4. age =  50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau khi thực thi xong ngữ cảnh của challenge02() thì sẽ remove khỏi Call Stack và remove đi Execution Context của nó nghĩa là các biến local của nó cũng được xoá đi. Lúc này Call Stack sẽ trở về thứ tự thực thi của Global </t>
+  </si>
+  <si>
+    <t>Khi chạy đến dòng còn lại của Global thì biến age trong Global Memory được in ra nên có kết quả là: 5. age =  20</t>
   </si>
 </sst>
 </file>
@@ -836,6 +964,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -864,11 +993,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2954,6 +3082,1800 @@
         <a:xfrm flipH="1">
           <a:off x="1473200" y="28422600"/>
           <a:ext cx="3530600" cy="1689100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>117186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F62579-1D5C-3F3C-B143-81AF4A6E4B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="7048500"/>
+          <a:ext cx="15214600" cy="4447886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>141025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105EDE1F-C4EA-D865-DEA1-42FE9BF384DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1003300" y="11938000"/>
+          <a:ext cx="15252700" cy="4459025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF691B1-47E5-CA62-1B60-76A96B1833D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="16751300"/>
+          <a:ext cx="15214600" cy="4447886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>92347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7BAEC8-69DF-CDC6-2A0A-76072FC96F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="21463000"/>
+          <a:ext cx="15138400" cy="5654947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>81002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6222A7-732D-A725-6D92-F78744AC6651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="27546300"/>
+          <a:ext cx="15189200" cy="5656302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>69790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F436593D-96CB-4EED-D8A4-8CBF9B43ACA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="33616900"/>
+          <a:ext cx="15227300" cy="5670490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>58504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6143B136-F0FC-EC89-902E-ED13A231A229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="39560500"/>
+          <a:ext cx="15227300" cy="6624404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474512</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AEB58D-CBD8-7938-4FAB-A352629F5D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977899" y="11277600"/>
+          <a:ext cx="15181113" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CE876E-BB18-3A34-CF63-8FA63C614D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="6654800"/>
+          <a:ext cx="1574800" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A379CD38-804F-AF90-ACAD-EA2393034C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1231900" y="7912100"/>
+          <a:ext cx="4648200" cy="3975100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0488ADAC-D705-0B2C-1B36-2FD2F9C73A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="8737600"/>
+          <a:ext cx="419100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E310E789-B2B2-71F6-29FC-75AA08041A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="13576300"/>
+          <a:ext cx="6426200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A822B4E3-625C-4CA6-AAF5-17E846D73382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3708400" y="13766800"/>
+          <a:ext cx="5867400" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D334B-0D17-CA0E-6399-B984ECDC9F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5092700" y="13779500"/>
+          <a:ext cx="4508500" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B07352-EA5A-BE33-FD6F-FA36818B3301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10617200" y="16027400"/>
+          <a:ext cx="2794000" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66B3B09-F63C-3CFF-E466-EA6A310A3208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10655300" y="15074900"/>
+          <a:ext cx="1778000" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C5C473-F35F-31C4-E2FF-41EA7D980798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="19075400"/>
+          <a:ext cx="10502900" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5D941A-A716-8397-9D01-3C5E9149E1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120900" y="24117300"/>
+          <a:ext cx="10325100" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DF141F-479F-CE2C-2005-02C592B7A80F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="24168100"/>
+          <a:ext cx="3784600" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF54DF2-9D68-A9C6-1347-1DBE4DA0BAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="24371300"/>
+          <a:ext cx="10147300" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28A0856-71BC-A8AE-6FC6-099EADC30271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3759200" y="29438600"/>
+          <a:ext cx="3949700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A1FBF9-8D13-1CC3-73D3-A363B7E6F93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="29413200"/>
+          <a:ext cx="9944100" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB8FE21-4149-A0C5-AFE7-2680639708FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1498600" y="29629100"/>
+          <a:ext cx="5435600" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD26C73-09F1-149A-56B6-532B1C797EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2260600" y="35953700"/>
+          <a:ext cx="4419600" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C81C6E-A5CF-2214-C563-CE0622572D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5575300" y="15113000"/>
+          <a:ext cx="4089400" cy="3873500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715D0531-93A5-2E63-4A5D-0511DCBC0067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="36156900"/>
+          <a:ext cx="8724900" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B1C483-1221-38B0-94B0-203D71B3AB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6997700" y="36144200"/>
+          <a:ext cx="152400" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1528BC0B-2CDA-43D9-6B70-CD46A2906851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2768600" y="42418000"/>
+          <a:ext cx="9855200" cy="2882900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B760490C-C6B6-F0BC-3E1A-10BA7CE276CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="42430700"/>
+          <a:ext cx="1066800" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EF4A97-FF07-8C64-4416-D9F4BC27C7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273300" y="44919900"/>
+          <a:ext cx="863600" cy="3759200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A059E-1AC4-C015-3F0C-68C5DB518D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="43484800"/>
+          <a:ext cx="2438400" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B2BE30-0018-6F46-B4BC-AB46C96CC33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="43967400"/>
+          <a:ext cx="1727200" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F36897A-2D8E-DB48-1F62-D2210EAB2F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2857500" y="48729900"/>
+          <a:ext cx="11341100" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E42C2E-C5D5-FDDF-DFB4-E0FB7A395936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968500" y="48945800"/>
+          <a:ext cx="10401300" cy="3759200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB828AF-0574-7309-DE20-299BDDBAF085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3860800" y="48933100"/>
+          <a:ext cx="5969000" cy="1231900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3338,160 +5260,160 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4317,8 +6239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3056677-CD6A-3649-991D-37762F732E35}">
   <dimension ref="A3:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4360,14 +6282,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5"/>
@@ -4377,7 +6299,6 @@
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="20"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4413,160 +6334,160 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -4598,18 +6519,12 @@
       <c r="B38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
       <c r="F39" s="5"/>
       <c r="G39" t="s">
         <v>32</v>
@@ -4620,18 +6535,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
       <c r="F41" s="5"/>
       <c r="G41" t="s">
         <v>32</v>
@@ -4642,18 +6551,12 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
       <c r="F43" s="5"/>
       <c r="G43" t="s">
         <v>32</v>
@@ -4664,18 +6567,12 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
       <c r="F45" s="5"/>
       <c r="G45" t="s">
         <v>32</v>
@@ -4686,27 +6583,18 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
       <c r="F48" s="5"/>
       <c r="G48" t="s">
         <v>32</v>
@@ -4719,50 +6607,32 @@
       <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
       <c r="F54" s="5"/>
       <c r="G54" t="s">
         <v>32</v>
@@ -4775,9 +6645,6 @@
       <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
       <c r="F55" s="5"/>
       <c r="G55" t="s">
         <v>32</v>
@@ -4790,16 +6657,10 @@
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -4834,485 +6695,94 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
       <c r="S64" s="5"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
       <c r="S67" s="5"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
       <c r="S68" s="5"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
       <c r="S69" s="5"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
       <c r="S71" s="5"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
       <c r="S73" s="5"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
       <c r="S75" s="5"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
       <c r="S78" s="5"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
       <c r="S80" s="5"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
       <c r="S81" s="5"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
       <c r="S82" s="5"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
       <c r="S83" s="5"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
       <c r="S84" s="5"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -5364,452 +6834,246 @@
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="22" t="s">
+      <c r="B91" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="14"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="17"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="17"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="17"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="17"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="17"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="17"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="17"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="17"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="17"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="17"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="22" t="s">
+      <c r="B103" s="15"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="17"/>
+      <c r="L103" t="s">
         <v>32</v>
       </c>
-      <c r="M103" s="22" t="s">
+      <c r="M103" t="s">
         <v>92</v>
       </c>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="22"/>
-      <c r="S104" s="22"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="17"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="17"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="20"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
       <c r="T108" s="5"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
-      <c r="B109" s="22" t="s">
+      <c r="B109" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
       <c r="T109" s="5"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -5822,18 +7086,6 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
       <c r="T110" s="5"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -5841,23 +7093,7 @@
       <c r="B111" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
       <c r="T111" s="5"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -5865,45 +7101,13 @@
       <c r="B112" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
       <c r="T112" s="5"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -5911,45 +7115,13 @@
       <c r="B114" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-      <c r="S114" s="22"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -5957,45 +7129,13 @@
       <c r="B116" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -6003,45 +7143,13 @@
       <c r="B118" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -6049,23 +7157,7 @@
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -6073,23 +7165,7 @@
       <c r="B121" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
       <c r="G121" s="5"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="22"/>
-      <c r="S121" s="22"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -6097,45 +7173,13 @@
       <c r="B122" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="22"/>
-      <c r="S122" s="22"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
-      <c r="S123" s="22"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
@@ -6143,27 +7187,13 @@
       <c r="B124" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="22" t="s">
+      <c r="H124" t="s">
         <v>32</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="I124" t="s">
         <v>96</v>
       </c>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
@@ -6171,45 +7201,13 @@
       <c r="B125" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="22"/>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22"/>
       <c r="T126" s="5"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
@@ -6217,23 +7215,7 @@
       <c r="B127" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="22"/>
-      <c r="O127" s="22"/>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
@@ -6241,23 +7223,7 @@
       <c r="B128" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="22"/>
-      <c r="S128" s="22"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
@@ -6265,97 +7231,35 @@
       <c r="B129" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
       <c r="G129" s="5"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="22"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="22"/>
-      <c r="O129" s="22"/>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22"/>
-      <c r="S129" s="22"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
-      <c r="P130" s="22"/>
-      <c r="Q130" s="22"/>
-      <c r="R130" s="22"/>
-      <c r="S130" s="22"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
       <c r="G131" s="5"/>
-      <c r="H131" s="22" t="s">
+      <c r="H131" t="s">
         <v>32</v>
       </c>
-      <c r="I131" s="22" t="s">
+      <c r="I131" t="s">
         <v>93</v>
       </c>
-      <c r="J131" s="22"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="22"/>
-      <c r="Q131" s="22"/>
-      <c r="R131" s="22"/>
-      <c r="S131" s="22"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
       <c r="G132" s="5"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="22"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="22"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="22"/>
-      <c r="Q132" s="22"/>
-      <c r="R132" s="22"/>
-      <c r="S132" s="22"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
@@ -6366,86 +7270,21 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="22"/>
-      <c r="N133" s="22"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="22"/>
-      <c r="Q133" s="22"/>
-      <c r="R133" s="22"/>
-      <c r="S133" s="22"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
-      <c r="S134" s="22"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="22"/>
-      <c r="L135" s="22"/>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
-      <c r="O135" s="22"/>
-      <c r="P135" s="22"/>
-      <c r="Q135" s="22"/>
-      <c r="R135" s="22"/>
-      <c r="S135" s="22"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
-      <c r="B136" s="22" t="s">
+      <c r="B136" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="22"/>
-      <c r="L136" s="22"/>
-      <c r="M136" s="22"/>
-      <c r="N136" s="22"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="22"/>
-      <c r="Q136" s="22"/>
-      <c r="R136" s="22"/>
-      <c r="S136" s="22"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
@@ -6456,42 +7295,12 @@
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="22"/>
-      <c r="P137" s="22"/>
-      <c r="Q137" s="22"/>
-      <c r="R137" s="22"/>
-      <c r="S137" s="22"/>
       <c r="T137" s="5"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
-      <c r="J138" s="22"/>
-      <c r="K138" s="22"/>
-      <c r="L138" s="22"/>
-      <c r="M138" s="22"/>
-      <c r="N138" s="22"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="22"/>
-      <c r="Q138" s="22"/>
-      <c r="R138" s="22"/>
-      <c r="S138" s="22"/>
       <c r="T138" s="5"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
@@ -6499,23 +7308,7 @@
       <c r="B139" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="22"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="22"/>
-      <c r="Q139" s="22"/>
-      <c r="R139" s="22"/>
-      <c r="S139" s="22"/>
       <c r="T139" s="5"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
@@ -6523,27 +7316,13 @@
       <c r="B140" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="22" t="s">
+      <c r="F140" t="s">
         <v>32</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G140" t="s">
         <v>94</v>
       </c>
-      <c r="H140" s="22"/>
-      <c r="I140" s="22"/>
-      <c r="J140" s="22"/>
-      <c r="K140" s="22"/>
-      <c r="L140" s="22"/>
-      <c r="M140" s="22"/>
-      <c r="N140" s="22"/>
-      <c r="O140" s="22"/>
-      <c r="P140" s="22"/>
-      <c r="Q140" s="22"/>
-      <c r="R140" s="22"/>
-      <c r="S140" s="22"/>
       <c r="T140" s="5"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
@@ -6551,27 +7330,13 @@
       <c r="B141" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="22" t="s">
+      <c r="F141" t="s">
         <v>32</v>
       </c>
-      <c r="G141" s="22" t="s">
+      <c r="G141" t="s">
         <v>95</v>
       </c>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="22"/>
-      <c r="L141" s="22"/>
-      <c r="M141" s="22"/>
-      <c r="N141" s="22"/>
-      <c r="O141" s="22"/>
-      <c r="P141" s="22"/>
-      <c r="Q141" s="22"/>
-      <c r="R141" s="22"/>
-      <c r="S141" s="22"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
@@ -6580,220 +7345,44 @@
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="22"/>
-      <c r="J142" s="22"/>
-      <c r="K142" s="22"/>
-      <c r="L142" s="22"/>
-      <c r="M142" s="22"/>
-      <c r="N142" s="22"/>
-      <c r="O142" s="22"/>
-      <c r="P142" s="22"/>
-      <c r="Q142" s="22"/>
-      <c r="R142" s="22"/>
-      <c r="S142" s="22"/>
       <c r="T142" s="5"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="22"/>
-      <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22"/>
-      <c r="N143" s="22"/>
-      <c r="O143" s="22"/>
-      <c r="P143" s="22"/>
-      <c r="Q143" s="22"/>
-      <c r="R143" s="22"/>
-      <c r="S143" s="22"/>
       <c r="T143" s="5"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
-      <c r="J144" s="22"/>
-      <c r="K144" s="22"/>
-      <c r="L144" s="22"/>
-      <c r="M144" s="22"/>
-      <c r="N144" s="22"/>
-      <c r="O144" s="22"/>
-      <c r="P144" s="22"/>
-      <c r="Q144" s="22"/>
-      <c r="R144" s="22"/>
-      <c r="S144" s="22"/>
       <c r="T144" s="5"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="22"/>
-      <c r="K145" s="22"/>
-      <c r="L145" s="22"/>
-      <c r="M145" s="22"/>
-      <c r="N145" s="22"/>
-      <c r="O145" s="22"/>
-      <c r="P145" s="22"/>
-      <c r="Q145" s="22"/>
-      <c r="R145" s="22"/>
-      <c r="S145" s="22"/>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="22"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="22"/>
-      <c r="S146" s="22"/>
       <c r="T146" s="5"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="22"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="22"/>
-      <c r="S147" s="22"/>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="22"/>
-      <c r="L148" s="22"/>
-      <c r="M148" s="22"/>
-      <c r="N148" s="22"/>
-      <c r="O148" s="22"/>
-      <c r="P148" s="22"/>
-      <c r="Q148" s="22"/>
-      <c r="R148" s="22"/>
-      <c r="S148" s="22"/>
       <c r="T148" s="5"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="22"/>
-      <c r="K149" s="22"/>
-      <c r="L149" s="22"/>
-      <c r="M149" s="22"/>
-      <c r="N149" s="22"/>
-      <c r="O149" s="22"/>
-      <c r="P149" s="22"/>
-      <c r="Q149" s="22"/>
-      <c r="R149" s="22"/>
-      <c r="S149" s="22"/>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-      <c r="O150" s="22"/>
-      <c r="P150" s="22"/>
-      <c r="Q150" s="22"/>
-      <c r="R150" s="22"/>
-      <c r="S150" s="22"/>
       <c r="T150" s="5"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="22"/>
-      <c r="Q151" s="22"/>
-      <c r="R151" s="22"/>
-      <c r="S151" s="22"/>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
@@ -6826,4 +7415,646 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F21A-4713-6542-BAF1-E01AF30A6042}">
+  <dimension ref="A5:I241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="V273" sqref="V273"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="5"/>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="5"/>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="5"/>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="5"/>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:I35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA815B-D5A4-834F-8D2F-B7174189D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971A286-99CD-2F4C-B97E-147DDA9F3B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2480" windowWidth="32120" windowHeight="17620" activeTab="2" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
+    <workbookView xWindow="2480" yWindow="2480" windowWidth="32120" windowHeight="17620" activeTab="3" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice 01" sheetId="1" r:id="rId1"/>
     <sheet name="Temporal Dead Zone(TDZ)" sheetId="2" r:id="rId2"/>
     <sheet name="Practice 02" sheetId="3" r:id="rId3"/>
+    <sheet name="Practice 03" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="196">
   <si>
     <t>javascript_advance</t>
   </si>
@@ -823,6 +824,396 @@
   </si>
   <si>
     <t>Khi chạy đến dòng còn lại của Global thì biến age trong Global Memory được in ra nên có kết quả là: 5. age =  20</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>scope_chain.js</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+&lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+  &lt;title&gt;Scope Chain&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;h1&gt;Scope Chain trong Javascript&lt;/h1&gt;
+&lt;/body&gt;
+  &lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>scope_chain.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;
+&lt;/html&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>javascript_advance/01_js_to_know/03_Scope_Chain/scope_chain.js</t>
+  </si>
+  <si>
+    <t>var x = 10;</t>
+  </si>
+  <si>
+    <t>one()</t>
+  </si>
+  <si>
+    <t>function one() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var y = 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  two();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  function two() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var z = 15;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    three();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    function three() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      var t = x + y + z;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      four();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>function four() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var t = 50;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('2. x = ', x); // 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('3. y = ', y); // Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('4. z = ', z); // Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log('5. t = ', t); // 50</t>
+  </si>
+  <si>
+    <t>Scope được hình thành trong giai đoạn Creation Phase phụ thuộc vào vị trí khai báo hàm</t>
+  </si>
+  <si>
+    <t>Hàm two() nằm trong hàm one()</t>
+  </si>
+  <si>
+    <t>Hàm three() nằm trong hàm two()</t>
+  </si>
+  <si>
+    <t>Uncaught ReferenceError: y is not defined</t>
+  </si>
+  <si>
+    <t>2. x =  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      console.log('1. x + y + z =', t); // 10 + 5 + 15</t>
+  </si>
+  <si>
+    <t>1. x + y + z = 30</t>
+  </si>
+  <si>
+    <t>Uncaught ReferenceError: z is not defined</t>
+  </si>
+  <si>
+    <t>5. t =  50</t>
+  </si>
+  <si>
+    <t>Ở đây sẽ lấy được các giá trị x, y, z của các tầm vực ở bên ngoài</t>
+  </si>
+  <si>
+    <t>Trong hàm three() gọi đến hàm four() mà hàm four() được khai báo cùng cấp với hàm one(). Hàm four() có thể gọi được vì hàm four() này sẽ được kế thừa từ tầm vực scope bên ngoài</t>
+  </si>
+  <si>
+    <t>x: undefined, one: function, four: function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, one: function, four: function</t>
+    </r>
+  </si>
+  <si>
+    <t>giai đoạn khởi tạo:</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>giai đoạn thực thi:</t>
+  </si>
+  <si>
+    <t>Local one</t>
+  </si>
+  <si>
+    <t>y: undefined, two: function</t>
+  </si>
+  <si>
+    <t>tại thời điểm hình thành local one này thì nó sẽ được kế thừa scope nằm trong tầm vực cha. Tầm vực cha của nó tại thời điểm hiện tại là Global</t>
+  </si>
+  <si>
+    <r>
+      <t>Do đó trong hàm one() ngoài việc sử dụng được biến</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>two()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  trong tầm vực của nó thì nó có thể sử dụng được </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>x, one(), four()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của tầm vực scope cha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, two: function</t>
+    </r>
+  </si>
+  <si>
+    <t>Local two</t>
+  </si>
+  <si>
+    <t>z: undefined, three: function</t>
+  </si>
+  <si>
+    <t>kế thừa tầm vực cha là Global và Local one</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">z: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, three: function</t>
+    </r>
+  </si>
+  <si>
+    <t>gọi hàm one() do đó sẽ tạo ra ngữ cảnh thực thi Local one</t>
+  </si>
+  <si>
+    <t>gọi hàm two() do đó tạo ra ngữ cảnh thực thi Local two</t>
+  </si>
+  <si>
+    <t>Local three</t>
+  </si>
+  <si>
+    <t>t: undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var t = x + y + z; </t>
+  </si>
+  <si>
+    <t>Trong scope của Local three không có x, y, z nên nó sẽ đi ngược ra ngoài tầm vực cha để tìm có z = 15, y = 5, x = 10</t>
+  </si>
+  <si>
+    <t>gọi hàm three() nên sẽ tạo ra ngữ cảnh thực thi Local three</t>
+  </si>
+  <si>
+    <t>Local four</t>
+  </si>
+  <si>
+    <t>t: undefined, three: function</t>
+  </si>
+  <si>
+    <t>kế thừa tầm vực cha là Global: x: 10, one: function, four: function</t>
+  </si>
+  <si>
+    <t>y, z: Không nằm trong tầm vực cha(Global) của scope Local four nên không thể truy cập được</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gọi hàm four() và tạo ra ngữ cảnh thực thi mới là Local four. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Scope được hình thành trong giai đoạn Creation Phase phụ thuộc vào vị trí khai báo hàm. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vị trí khai báo hàm four() nằm cùng cấp với hàm one() nên Local four sẽ giống Local của one(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>chỉ kế thừa lại scope của Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, x: 10, one: function, four: function</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -950,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -994,9 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4904,6 +5292,1009 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544B6A70-D687-0136-3721-655640D14E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1473200" y="7886700"/>
+          <a:ext cx="8051800" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605A1E2D-09FE-D8E5-A02D-21B15CD751E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1524000" y="8686800"/>
+          <a:ext cx="7848600" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C361361F-8887-4413-065A-483BC2563838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1689100" y="9512300"/>
+          <a:ext cx="7785100" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D659A6-F10B-1544-4695-AD3BB196242C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1130300" y="7937500"/>
+          <a:ext cx="596900" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A5060A-B98E-A3E8-381E-92CD2B56F764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1536700" y="8509000"/>
+          <a:ext cx="1092200" cy="5422900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B21977F-4D0A-4517-01B7-CDE4EACAC596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1625600" y="11772900"/>
+          <a:ext cx="1917700" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC39C52-4213-AE4B-F62D-5F730DE6EC4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="457200" y="13754100"/>
+          <a:ext cx="10680700" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392C893C-0A15-CA62-7F19-0569013D0C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1778000" y="14592300"/>
+          <a:ext cx="8432800" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E09A8C6-64C6-5107-1AE6-2E545C693324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1346200" y="14808200"/>
+          <a:ext cx="914400" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99A8CD3-87DF-3B26-8D2D-B02AAD2895FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="8305800"/>
+          <a:ext cx="1536700" cy="6388100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B29173-99E1-A097-1F1B-B8358B1B251A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171700" y="16865600"/>
+          <a:ext cx="3314700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB216F11-93E2-3834-EE92-9768146E1E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3035300" y="18669000"/>
+          <a:ext cx="3657600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ADA2E4-7E2B-8889-D65B-08DCB20C2EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3581400" y="18478500"/>
+          <a:ext cx="8432800" cy="1536700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86EB687-CE62-ECBA-904C-F8C35A88C4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2705100" y="16637000"/>
+          <a:ext cx="9715500" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96B7A0D-0CF7-E05E-11F4-50DE74F96330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1752600" y="14630400"/>
+          <a:ext cx="11125200" cy="5372100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465DC3A0-35D9-A6AA-D0D2-3AC973DD80FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3568700" y="14211300"/>
+          <a:ext cx="1244600" cy="5994400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC39963-7EAA-9235-2C46-CB2CAAAF2199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4089400" y="21729700"/>
+          <a:ext cx="571500" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AFEA03-FAEE-8DBE-2673-D6B99DD4D8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1193800" y="20294600"/>
+          <a:ext cx="6121400" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>176688</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D76F6C-D274-E761-007E-3B0A284B49CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="23520400"/>
+          <a:ext cx="14946788" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5203,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3700FC6-EC92-1242-9BD8-44B906792490}">
   <dimension ref="A3:T204"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5240,6 +6631,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -5247,6 +6644,12 @@
         <v>4</v>
       </c>
       <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
@@ -6240,32 +7643,32 @@
   <dimension ref="A3:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E16"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6273,56 +7676,74 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="D14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7421,18 +8842,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B88F21A-4713-6542-BAF1-E01AF30A6042}">
   <dimension ref="A5:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="V273" sqref="V273"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7440,56 +8861,56 @@
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>97</v>
@@ -7497,19 +8918,31 @@
       <c r="D14" s="10"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
@@ -7517,32 +8950,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
@@ -7558,122 +8969,122 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7686,26 +9097,10 @@
       <c r="H35" s="19"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
@@ -7726,34 +9121,506 @@
       <c r="B40" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:I35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918C23D9-4C63-B941-B108-6E53F41D7DB0}">
+  <dimension ref="A2:T126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="5"/>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="5"/>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -7761,44 +9628,32 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="5"/>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="5"/>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -7808,12 +9663,12 @@
         <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -7822,233 +9677,1128 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="5"/>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="5"/>
-      <c r="G51" t="s">
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="5"/>
+      <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="H51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="22"/>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="22"/>
+      <c r="F53" s="5"/>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="22"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="22"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="22"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="22"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="22"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="22"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="22"/>
+      <c r="F60" s="5"/>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="22"/>
+      <c r="F61" s="5"/>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="22"/>
+      <c r="F62" s="5"/>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="22"/>
+      <c r="F63" s="5"/>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
-        <v>131</v>
-      </c>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="5"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="5"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C87" s="4"/>
+      <c r="D87" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C88" s="4"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C89" s="4"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C90" s="4"/>
+      <c r="D90" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C91" s="4"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C92" s="4"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D96" s="4"/>
+      <c r="E96" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D97" s="4"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D98" s="4"/>
+      <c r="E98" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D99" s="4"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D100" s="4"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D101" s="4"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="8"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="4"/>
+      <c r="C105" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B106" s="4"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B107" s="4"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B108" s="4"/>
+      <c r="C108" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B109" s="4"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B110" s="4"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="3"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971A286-99CD-2F4C-B97E-147DDA9F3B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B434542-7C7C-1846-8B18-309F4765B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2480" windowWidth="32120" windowHeight="17620" activeTab="3" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
+    <workbookView xWindow="41620" yWindow="3220" windowWidth="32120" windowHeight="17620" activeTab="3" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice 01" sheetId="1" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1383,8 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9320,8 +9318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918C23D9-4C63-B941-B108-6E53F41D7DB0}">
   <dimension ref="A2:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="V108" sqref="V108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9403,7 +9401,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="D15" s="21" t="s">
+      <c r="D15" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="5"/>
@@ -9603,61 +9601,40 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
       <c r="F46" s="5"/>
       <c r="G46" t="s">
         <v>32</v>
@@ -9670,36 +9647,24 @@
       <c r="B47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
       <c r="F50" s="5"/>
       <c r="G50" t="s">
         <v>32</v>
@@ -9712,18 +9677,12 @@
       <c r="B51" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
       <c r="F52" s="5"/>
       <c r="G52" t="s">
         <v>32</v>
@@ -9739,9 +9698,6 @@
       <c r="B53" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
       <c r="F53" s="5"/>
       <c r="G53" t="s">
         <v>32</v>
@@ -9754,61 +9710,40 @@
       <c r="B54" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
       <c r="F60" s="5"/>
       <c r="G60" t="s">
         <v>32</v>
@@ -9821,9 +9756,6 @@
       <c r="B61" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
       <c r="F61" s="5"/>
       <c r="G61" t="s">
         <v>32</v>
@@ -9836,9 +9768,6 @@
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
       <c r="F62" s="5"/>
       <c r="G62" t="s">
         <v>32</v>
@@ -9851,9 +9780,6 @@
       <c r="B63" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
       <c r="F63" s="5"/>
       <c r="G63" t="s">
         <v>32</v>
@@ -9866,9 +9792,6 @@
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -9878,13 +9801,6 @@
       <c r="E65" s="7"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-    </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>171</v>
@@ -9898,57 +9814,37 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22" t="s">
+      <c r="C70" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="22" t="s">
+      <c r="B71" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22" t="s">
+      <c r="C72" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22" t="s">
+      <c r="C73" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -9959,15 +9855,6 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
@@ -9990,135 +9877,51 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
-      <c r="C77" s="22" t="s">
+      <c r="C77" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
       <c r="P77" s="5"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22" t="s">
+      <c r="D78" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
       <c r="P78" s="5"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22" t="s">
+      <c r="D79" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
       <c r="P79" s="5"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22" t="s">
+      <c r="D80" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
-      <c r="C81" s="22" t="s">
+      <c r="C81" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22" t="s">
+      <c r="D82" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22" t="s">
+      <c r="D83" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
@@ -10158,110 +9961,44 @@
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
-      <c r="D87" s="22" t="s">
+      <c r="D87" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
       <c r="P87" s="5"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22" t="s">
+      <c r="E88" t="s">
         <v>179</v>
       </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
       <c r="P88" s="5"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
+      <c r="E89" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
-      <c r="D90" s="22" t="s">
+      <c r="D90" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22" t="s">
+      <c r="E91" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22" t="s">
+      <c r="E92" t="s">
         <v>188</v>
       </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
       <c r="P92" s="5"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.2">
@@ -10300,112 +10037,47 @@
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D96" s="4"/>
-      <c r="E96" s="22" t="s">
+      <c r="E96" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
       <c r="Q96" s="5"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D97" s="4"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22" t="s">
+      <c r="F97" t="s">
         <v>185</v>
       </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
       <c r="Q97" s="5"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D98" s="4"/>
-      <c r="E98" s="22" t="s">
+      <c r="E98" t="s">
         <v>172</v>
       </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
       <c r="Q98" s="5"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D99" s="4"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22" t="s">
+      <c r="F99" t="s">
         <v>186</v>
       </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22" t="s">
+      <c r="H99" t="s">
         <v>187</v>
       </c>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
       <c r="Q99" s="5"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D100" s="4"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22" t="s">
+      <c r="F100" t="s">
         <v>193</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
       <c r="Q100" s="5"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D101" s="4"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22" t="s">
+      <c r="F101" t="s">
         <v>194</v>
       </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
       <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.2">
@@ -10440,86 +10112,44 @@
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
-      <c r="C105" s="22" t="s">
+      <c r="C105" t="s">
         <v>170</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22" t="s">
+      <c r="D106" t="s">
         <v>190</v>
       </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22" t="s">
+      <c r="D107" t="s">
         <v>191</v>
       </c>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
-      <c r="C108" s="22" t="s">
+      <c r="C108" t="s">
         <v>172</v>
       </c>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22" t="s">
+      <c r="D109" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22" t="s">
+      <c r="D110" t="s">
         <v>192</v>
       </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.2">
@@ -10560,222 +10190,42 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="22"/>
-      <c r="S121" s="22"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="22"/>
-      <c r="S122" s="22"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
-      <c r="S123" s="22"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">

--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/4.Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B434542-7C7C-1846-8B18-309F4765B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B78770-4418-B14D-9DF5-5B68414F48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41620" yWindow="3220" windowWidth="32120" windowHeight="17620" activeTab="3" xr2:uid="{ABD19E2E-ECD6-8D4B-8A47-CD276CAA85E8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="197">
   <si>
     <t>javascript_advance</t>
   </si>
@@ -1214,6 +1214,9 @@
       </rPr>
       <t>, x: 10, one: function, four: function</t>
     </r>
+  </si>
+  <si>
+    <t>01_Creation_Phase</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1383,6 +1386,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5296,13 +5301,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5349,13 +5354,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5402,13 +5407,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5455,13 +5460,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5508,13 +5513,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5561,13 +5566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5614,13 +5619,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5667,13 +5672,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5720,13 +5725,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5773,13 +5778,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5826,13 +5831,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5879,13 +5884,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5932,13 +5937,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5985,13 +5990,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6038,13 +6043,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6091,13 +6096,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6144,13 +6149,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6197,13 +6202,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6250,13 +6255,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>176688</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9316,10 +9321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918C23D9-4C63-B941-B108-6E53F41D7DB0}">
-  <dimension ref="A2:T126"/>
+  <dimension ref="A2:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="V108" sqref="V108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9340,130 +9345,166 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="5"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="D16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>134</v>
-      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="5"/>
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
@@ -9576,621 +9617,627 @@
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B41" s="4"/>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="B46" s="4"/>
       <c r="F46" s="5"/>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="5"/>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="5"/>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" t="s">
-        <v>163</v>
-      </c>
-      <c r="J52" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" t="s">
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54" s="5"/>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="B58" s="4"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>160</v>
+      <c r="H61" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" t="s">
         <v>32</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" t="s">
         <v>32</v>
       </c>
-      <c r="H63" t="s">
-        <v>165</v>
+      <c r="H63" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" s="5"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="C70" t="s">
-        <v>168</v>
+      <c r="B70" t="s">
+        <v>170</v>
       </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>172</v>
+      <c r="C71" t="s">
+        <v>168</v>
       </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="C72" t="s">
-        <v>169</v>
+      <c r="B72" t="s">
+        <v>172</v>
       </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="C74" t="s">
         <v>182</v>
       </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="P77" s="5"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
-      <c r="D78" t="s">
-        <v>174</v>
+      <c r="C78" t="s">
+        <v>170</v>
       </c>
       <c r="P78" s="5"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P79" s="5"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
-      <c r="C81" t="s">
-        <v>172</v>
+      <c r="D81" t="s">
+        <v>176</v>
       </c>
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
-      <c r="D82" t="s">
-        <v>177</v>
+      <c r="C82" t="s">
+        <v>172</v>
       </c>
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="D83" t="s">
+        <v>177</v>
+      </c>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+      <c r="D84" t="s">
         <v>183</v>
       </c>
-      <c r="P83" s="5"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="8"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="s">
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C87" s="4"/>
-      <c r="D87" t="s">
-        <v>170</v>
-      </c>
-      <c r="P87" s="5"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="3"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
-      <c r="E88" t="s">
-        <v>179</v>
+      <c r="D88" t="s">
+        <v>170</v>
       </c>
       <c r="P88" s="5"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
-      <c r="D90" t="s">
-        <v>172</v>
+      <c r="E90" t="s">
+        <v>180</v>
       </c>
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
-      <c r="E91" t="s">
-        <v>181</v>
+      <c r="D91" t="s">
+        <v>172</v>
       </c>
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="E92" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C93" s="4"/>
+      <c r="E93" t="s">
         <v>188</v>
       </c>
-      <c r="P92" s="5"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="8"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D95" s="1" t="s">
+      <c r="P93" s="5"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D96" s="4"/>
-      <c r="E96" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q96" s="5"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D97" s="4"/>
-      <c r="F97" t="s">
-        <v>185</v>
+      <c r="E97" t="s">
+        <v>170</v>
       </c>
       <c r="Q97" s="5"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D98" s="4"/>
-      <c r="E98" t="s">
-        <v>172</v>
+      <c r="F98" t="s">
+        <v>185</v>
       </c>
       <c r="Q98" s="5"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D99" s="4"/>
-      <c r="F99" t="s">
-        <v>186</v>
-      </c>
-      <c r="H99" t="s">
-        <v>187</v>
+      <c r="E99" t="s">
+        <v>172</v>
       </c>
       <c r="Q99" s="5"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D100" s="4"/>
       <c r="F100" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="H100" t="s">
+        <v>187</v>
       </c>
       <c r="Q100" s="5"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D101" s="4"/>
       <c r="F101" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D102" s="4"/>
+      <c r="F102" t="s">
         <v>194</v>
       </c>
-      <c r="Q101" s="5"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D102" s="6"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="8"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="8"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
-      <c r="C105" t="s">
-        <v>170</v>
-      </c>
-      <c r="K105" s="5"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="3"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
-      <c r="D106" t="s">
-        <v>190</v>
+      <c r="C106" t="s">
+        <v>170</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="D107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
-      <c r="C108" t="s">
-        <v>172</v>
+      <c r="D108" t="s">
+        <v>191</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
-      <c r="D109" t="s">
-        <v>195</v>
+      <c r="C109" t="s">
+        <v>172</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="D110" t="s">
+        <v>195</v>
+      </c>
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="4"/>
+      <c r="D111" t="s">
         <v>192</v>
       </c>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="8"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="3"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="T116" s="5"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="3"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
@@ -10229,30 +10276,34 @@
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="8"/>
+      <c r="A126" s="4"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:I35"/>
+    <mergeCell ref="B23:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
